--- a/NEW HR/DONE/MIRANDA, JULIUS.xlsx
+++ b/NEW HR/DONE/MIRANDA, JULIUS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -202,6 +202,54 @@
   </si>
   <si>
     <t>2/3,5,7,11/2020</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>1/5,11/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(0-4-0)</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>2/3,6,7/2023</t>
+  </si>
+  <si>
+    <t>2/17,20/2023</t>
+  </si>
+  <si>
+    <t>VL(0-4-0)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/2,3/2023</t>
+  </si>
+  <si>
+    <t>5/10,11/2023</t>
+  </si>
+  <si>
+    <t>6/19,23/2023</t>
+  </si>
+  <si>
+    <t>7/4,5/2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>7/10,13,17,21,27/2023</t>
+  </si>
+  <si>
+    <t>8/7,9,25/2023</t>
   </si>
 </sst>
 </file>
@@ -438,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,6 +631,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -595,26 +652,23 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,7 +1359,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1402,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1466,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1526,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1592,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1655,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1753,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1812,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1877,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1920,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1995,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2181,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2247,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2305,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2371,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2427,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2502,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2545,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2611,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2667,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2765,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2828,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +2924,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3250,8 +3304,8 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="3900" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
       <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
@@ -3283,14 +3337,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3301,14 +3355,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3321,14 +3375,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3354,18 +3408,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5713,17 +5767,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5756,12 +5810,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="4380" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5792,14 +5846,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5813,17 +5867,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53" t="str">
+      <c r="F3" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5837,17 +5891,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5873,18 +5927,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5931,7 +5985,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.223999999999997</v>
+        <v>38.223999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5941,7 +5995,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>111.85</v>
+        <v>86.35</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5993,7 +6047,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
       <c r="D12" s="39"/>
@@ -6009,8 +6065,12 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
@@ -6019,14 +6079,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="39">
+        <v>2</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="61" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
@@ -6035,16 +6101,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="61">
+        <v>44929</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="39"/>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13" t="str">
@@ -6054,43 +6128,61 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="61">
+        <v>44946</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="61">
+        <v>44952</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="39"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="43">
+        <v>0.5</v>
+      </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="62">
+        <v>44956</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
       <c r="E18" s="9"/>
@@ -6099,16 +6191,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="61">
+        <v>44959</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="39">
+        <v>3</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13" t="str">
@@ -6118,11 +6218,15 @@
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="61" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
@@ -6131,14 +6235,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="39">
+        <v>1</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="61">
+        <v>44967</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
@@ -6147,14 +6257,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="39">
+        <v>2</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -6163,16 +6279,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="61">
+        <v>44979</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -6182,11 +6308,15 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="61">
+        <v>45001</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -6195,14 +6325,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="61">
+        <v>45005</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -6211,14 +6347,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39">
+        <v>1</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="61">
+        <v>45009</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -6227,14 +6369,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="61">
+        <v>45013</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
@@ -6243,16 +6391,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="61">
+        <v>45014</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="39"/>
+      <c r="D28" s="39">
+        <v>1</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13" t="str">
@@ -6262,11 +6418,17 @@
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="61">
+        <v>45016</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
@@ -6275,14 +6437,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="61">
+        <v>45020</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
@@ -6291,14 +6459,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="39">
+        <v>1</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="61">
+        <v>45021</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
@@ -6307,14 +6481,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="61">
+        <v>45028</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
@@ -6323,16 +6503,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="39">
+        <v>1</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="61">
+        <v>45043</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="39"/>
+      <c r="D33" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13" t="str">
@@ -6342,13 +6530,21 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="61">
+        <v>45044</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="39"/>
+      <c r="D34" s="39">
+        <v>2</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13" t="str">
@@ -6358,11 +6554,15 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
@@ -6371,14 +6571,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="39"/>
+      <c r="H35" s="39">
+        <v>1</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="61">
+        <v>45051</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
@@ -6387,14 +6593,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="39">
+        <v>2</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
@@ -6403,14 +6615,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="39">
+        <v>1</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="61">
+        <v>45061</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
@@ -6419,14 +6637,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="61">
+        <v>45064</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
@@ -6435,16 +6659,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H39" s="39"/>
+      <c r="H39" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="61">
+        <v>45065</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="39"/>
+      <c r="D40" s="39">
+        <v>1</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13" t="str">
@@ -6454,13 +6686,21 @@
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="61">
+        <v>45075</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39">
+        <v>2</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13" t="str">
@@ -6470,11 +6710,15 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
@@ -6483,14 +6727,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="39">
+        <v>1</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="61">
+        <v>45086</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
@@ -6499,14 +6749,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H43" s="39"/>
+      <c r="H43" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="61">
+        <v>45103</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
@@ -6515,14 +6771,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H44" s="39"/>
+      <c r="H44" s="39">
+        <v>1</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="61">
+        <v>45104</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
@@ -6531,16 +6795,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H45" s="39"/>
+      <c r="H45" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="61">
+        <v>45110</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="39"/>
+      <c r="D46" s="39">
+        <v>2</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13" t="str">
@@ -6550,11 +6822,15 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
@@ -6563,16 +6839,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H47" s="39"/>
+      <c r="H47" s="39">
+        <v>1</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="61">
+        <v>45114</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>5</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13" t="str">
@@ -6582,11 +6866,15 @@
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
@@ -6595,14 +6883,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="39"/>
+      <c r="H49" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="61">
+        <v>45118</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
@@ -6611,14 +6905,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="61">
+        <v>45133</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
@@ -6627,14 +6927,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H51" s="39"/>
+      <c r="H51" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="61">
+        <v>45135</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
@@ -6643,14 +6949,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H52" s="39"/>
+      <c r="H52" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="61">
+        <v>45138</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
@@ -6659,16 +6973,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="61">
+        <v>45142</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="39"/>
+      <c r="D54" s="39">
+        <v>3</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
@@ -6678,11 +7000,15 @@
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
@@ -6691,14 +7017,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="39"/>
+      <c r="H55" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
+      <c r="K55" s="61">
+        <v>45155</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
       <c r="E56" s="9"/>
@@ -6707,10 +7039,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H56" s="39"/>
+      <c r="H56" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="61">
+        <v>45162</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
@@ -7881,20 +8217,36 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7942,7 +8294,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8009,11 +8361,13 @@
         <v>113.85</v>
       </c>
       <c r="D3"/>
-      <c r="E3"/>
+      <c r="E3">
+        <v>4</v>
+      </c>
       <c r="F3"/>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
